--- a/biology/Botanique/Cleomaceae/Cleomaceae.xlsx
+++ b/biology/Botanique/Cleomaceae/Cleomaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleomaceae est une famille végétale introduite par le Angiosperm Phylogeny Website.
 La famille des Cléomacées est une famille de plantes dicotylédones qui comporte environ 300 espèces réparties en 6 à 20 genres.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cleome, peut-être dérivé du grec κλέος / kleos, « renommée, gloire »[1]. Ce nom fut « employé par Octave Horace, médecin latin du quatrième siècle, pour désigner une plante analogue au Sinapis » (Brassicaceae)[2], sans qu'il précise  l’origine du choix de ce nom générique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cleome, peut-être dérivé du grec κλέος / kleos, « renommée, gloire ». Ce nom fut « employé par Octave Horace, médecin latin du quatrième siècle, pour désigner une plante analogue au Sinapis » (Brassicaceae), sans qu'il précise  l’origine du choix de ce nom générique.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille n'existe pas en classification classique de Cronquist (1981)[3], qui assigne ces plantes à la famille des Capparacées.
-En classification phylogénétique APG II (2003)[4], ces plantes sont incluses dans les Brassicacées (avec les Capparacées).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille n'existe pas en classification classique de Cronquist (1981), qui assigne ces plantes à la famille des Capparacées.
+En classification phylogénétique APG II (2003), ces plantes sont incluses dans les Brassicacées (avec les Capparacées).
 Le Angiosperm Phylogeny Website [25 août 2006] accepte trois familles séparées (Brassicaceae, Capparaceae, Cleomaceae).
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (19 janvier 2022)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (19 janvier 2022) :
 genre Andinocleome Iltis &amp; Cochrane
 genre Areocleome R.L.Barrett &amp; Roalson
 genre Arivela Raf.
@@ -608,7 +626,7 @@
 genre Stylidocleome Roalson &amp; J.C.Hall
 genre Tarenaya Raf.
 genre Thulinella Roalson &amp; J.C.Hall
-Selon classification phylogénétique APG IV (2016)[6][7] :
+Selon classification phylogénétique APG IV (2016) :
 genre Andinocleome H. Iltis &amp; Cochrane
 genre Areocleome R. L. Barrett &amp; Roalson
 genre Arivela Rafinesque
@@ -636,14 +654,14 @@
 genre Stylidocleome Roalson &amp; J. C. Hall
 genre Tarenaya Rafinesque
 genre Thulinella Roalson &amp; J. C. Hall
-Selon NCBI  (16 juin 2010)[8] :
+Selon NCBI  (16 juin 2010) :
 Cleome
 Cleomella (en)
 Oxystylis (en)
 Podandrogyne (en)
 Polanisia
 Wislizenia
-Selon Angiosperm Phylogeny Website                        (16 juin 2010)[9] :
+Selon Angiosperm Phylogeny Website                        (16 juin 2010) :
 Beautempsia Gaudich.
 Belencita (en) H.Karst.
 Borthwickia (en) W.W.Sm.
@@ -664,7 +682,7 @@
 Puccionia Chiov.
 Steriphoma (en) Spreng.
 Wislizenia Engelm.
-Selon DELTA Angio           (16 juin 2010)[10] :
+Selon DELTA Angio           (16 juin 2010) :
 Buhsia
 Cleome
 Cleomella
@@ -700,9 +718,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 juin 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 juin 2010) :
 genre Cleome
 Cleome aculeata
 Cleome anomala
